--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/upload/files/CustomerUpload.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/upload/files/CustomerUpload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C2E8F1F-655F-40E3-A707-E0B124DBA91C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{600A7A52-BEE1-4A83-9F90-9B79A778EF4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RetailLevel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>客户编码</t>
   </si>
@@ -31,9 +31,6 @@
     <t>客户分档</t>
   </si>
   <si>
-    <t>业态</t>
-  </si>
-  <si>
     <t>订货电话</t>
   </si>
   <si>
@@ -43,18 +40,9 @@
     <t>客户经理</t>
   </si>
   <si>
-    <t>经营规模</t>
-  </si>
-  <si>
-    <t>市场类型</t>
-  </si>
-  <si>
     <t>专卖证号</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
     <t>000123596326</t>
   </si>
   <si>
@@ -73,15 +61,15 @@
     <t>15651323</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>0005646653265</t>
   </si>
   <si>
     <t>朝夕</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>16025962365</t>
   </si>
   <si>
@@ -91,7 +79,7 @@
     <t>炸鱼</t>
   </si>
   <si>
-    <t>1</t>
+    <t>二</t>
   </si>
   <si>
     <t>15689562365</t>
@@ -103,12 +91,6 @@
     <t>郑楚</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>乡村</t>
-  </si>
-  <si>
     <t>4569612366</t>
   </si>
   <si>
@@ -127,21 +109,12 @@
     <t>查明芳</t>
   </si>
   <si>
-    <t>1档</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
     <t>19024568525</t>
   </si>
   <si>
     <t>周瑜</t>
   </si>
   <si>
-    <t>城镇</t>
-  </si>
-  <si>
     <t>1510250101110090</t>
   </si>
   <si>
@@ -215,6 +188,28 @@
   </si>
   <si>
     <t>14022569566</t>
+  </si>
+  <si>
+    <t>91档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>一</t>
   </si>
 </sst>
 </file>
@@ -269,74 +264,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,7 +283,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -645,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,330 +602,250 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>